--- a/canva25.xlsx
+++ b/canva25.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epsilonxe/workspace/tmp/canva25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE79D59-5755-FA4D-973E-BC032608B9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DD0A4-A679-834B-97B1-A151D405F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26620" windowHeight="17960" xr2:uid="{1D869329-8CCE-AF4F-95D1-1424810DEE25}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="bck" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="129">
   <si>
     <t>ชื่อ</t>
   </si>
@@ -302,12 +303,6 @@
     <t>สุรินทร์</t>
   </si>
   <si>
-    <t>กนกวรรณ</t>
-  </si>
-  <si>
-    <t>กล่อมเกลี้ยง</t>
-  </si>
-  <si>
     <t>นางสาวลักษมณ</t>
   </si>
   <si>
@@ -423,6 +418,12 @@
   </si>
   <si>
     <t>โรงเรียนวัดหว่านบุญ</t>
+  </si>
+  <si>
+    <t>สุวพร</t>
+  </si>
+  <si>
+    <t>ปิ่นแก้ว</t>
   </si>
 </sst>
 </file>
@@ -456,12 +457,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -491,13 +498,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF98D5E-5D78-BE4D-891C-8A7B0F33C0D7}">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06524391-BD39-9C45-9F4C-D3CA3BA4C2E8}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -880,6 +891,409 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF98D5E-5D78-BE4D-891C-8A7B0F33C0D7}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1283,29 +1697,25 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>7</v>
@@ -1313,13 +1723,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>7</v>
@@ -1327,13 +1737,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
@@ -1341,13 +1751,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -1355,13 +1765,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>7</v>
@@ -1369,27 +1779,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>7</v>
@@ -1397,77 +1807,77 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
